--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/122.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/122.xlsx
@@ -479,13 +479,13 @@
         <v>-18.33966684368923</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.87136303616207</v>
+        <v>-13.84822893704074</v>
       </c>
       <c r="F2" t="n">
-        <v>4.158269776327208</v>
+        <v>4.137479199414547</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.560696140918079</v>
+        <v>-9.576393812025309</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.12372773675549</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.4510902059937</v>
+        <v>-14.42833578365478</v>
       </c>
       <c r="F3" t="n">
-        <v>4.374240404004321</v>
+        <v>4.351721643116552</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.231568739779927</v>
+        <v>-9.246899826407589</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.79706607248339</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.07635240510885</v>
+        <v>-15.05393838264382</v>
       </c>
       <c r="F4" t="n">
-        <v>4.441613394427844</v>
+        <v>4.417680664833168</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.199021274915395</v>
+        <v>-9.211026916621259</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.38736487454149</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.69398179166728</v>
+        <v>-15.67142375387099</v>
       </c>
       <c r="F5" t="n">
-        <v>4.422812847547124</v>
+        <v>4.398644456501298</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.849784096612353</v>
+        <v>-8.860873277119294</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.90657951097264</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.34104267501391</v>
+        <v>-16.31839299109772</v>
       </c>
       <c r="F6" t="n">
-        <v>4.411213067229355</v>
+        <v>4.38720178381763</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.443490662525068</v>
+        <v>-8.458651549215787</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.37728941299046</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.89167874793122</v>
+        <v>-16.87214503209137</v>
       </c>
       <c r="F7" t="n">
-        <v>4.653603962041072</v>
+        <v>4.62673855660985</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.426928899430285</v>
+        <v>-8.439314217918557</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.80797212319558</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.88056656617248</v>
+        <v>-17.85812635910176</v>
       </c>
       <c r="F8" t="n">
-        <v>4.812832549202144</v>
+        <v>4.787171635632362</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.58844545623478</v>
+        <v>-7.603344496868664</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.20352580751524</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.50995284068278</v>
+        <v>-18.48887423310759</v>
       </c>
       <c r="F9" t="n">
-        <v>4.769785057458549</v>
+        <v>4.743940851648982</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.185346544040876</v>
+        <v>-7.199604061835516</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.56609436439994</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.24720659830605</v>
+        <v>-19.22485803735523</v>
       </c>
       <c r="F10" t="n">
-        <v>4.91458592688804</v>
+        <v>4.888794090289839</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.329764553334078</v>
+        <v>-6.344414840213969</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.89192633946141</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.10746254112735</v>
+        <v>-20.08529727241631</v>
       </c>
       <c r="F11" t="n">
-        <v>5.100889396325801</v>
+        <v>5.07501900591055</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.085121782433585</v>
+        <v>-6.101526437894267</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.19209569198274</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.06500738636551</v>
+        <v>-21.04203039487828</v>
       </c>
       <c r="F12" t="n">
-        <v>5.445216961063197</v>
+        <v>5.41808970957514</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.476238054173431</v>
+        <v>-5.489644572283358</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.47283720642818</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.73627593766649</v>
+        <v>-21.71414994586397</v>
       </c>
       <c r="F13" t="n">
-        <v>5.576977896862328</v>
+        <v>5.55021722985384</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.064930268097764</v>
+        <v>-5.075482664188195</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.76543690920386</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.53984220918311</v>
+        <v>-22.51740200211239</v>
       </c>
       <c r="F14" t="n">
-        <v>5.870585880390877</v>
+        <v>5.84474167458131</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.126002677500537</v>
+        <v>-4.137301334852947</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.08354434707078</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.54001559247393</v>
+        <v>-23.51669820111282</v>
       </c>
       <c r="F15" t="n">
-        <v>6.088965491790868</v>
+        <v>6.061602578851661</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.694414914323037</v>
+        <v>-3.705072048836203</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.45589693779767</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.19642438004955</v>
+        <v>-24.17462569581808</v>
       </c>
       <c r="F16" t="n">
-        <v>6.373984924655244</v>
+        <v>6.346203058025101</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.4805390551006</v>
+        <v>-3.487294683366931</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.888541656665119</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.067586211138</v>
+        <v>-25.045997003752</v>
       </c>
       <c r="F17" t="n">
-        <v>6.720773842326884</v>
+        <v>6.692782498851274</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.367120435582728</v>
+        <v>-3.371663464668806</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.399536200840023</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.79794032516369</v>
+        <v>-25.77793528642153</v>
       </c>
       <c r="F18" t="n">
-        <v>6.609305975932428</v>
+        <v>6.582623862740991</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.992405635949686</v>
+        <v>-2.996935572732923</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.98548613196491</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.43412150484884</v>
+        <v>-26.41581846547611</v>
       </c>
       <c r="F19" t="n">
-        <v>6.723575595135014</v>
+        <v>6.698831142764152</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.590327923377437</v>
+        <v>-2.59453055258963</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.653341115986192</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.93735034917627</v>
+        <v>-26.91882474065523</v>
       </c>
       <c r="F20" t="n">
-        <v>6.942557452465724</v>
+        <v>6.915456385583351</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.355229441248561</v>
+        <v>-2.360008131785791</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.391797144888699</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.29419415543035</v>
+        <v>-27.27671593113665</v>
       </c>
       <c r="F21" t="n">
-        <v>6.904642143436085</v>
+        <v>6.878457537752633</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.137203322025297</v>
+        <v>-2.142204581710836</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.197878524045844</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.81168051755242</v>
+        <v>-27.79420229325871</v>
       </c>
       <c r="F22" t="n">
-        <v>6.954471448051694</v>
+        <v>6.929229488172846</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.171793186133137</v>
+        <v>-2.17378321616508</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.054299567204803</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.02809628352615</v>
+        <v>-28.01148215122</v>
       </c>
       <c r="F23" t="n">
-        <v>6.971439072534571</v>
+        <v>6.945804343570472</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.252022817947235</v>
+        <v>-2.253476063562666</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.951768630511938</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.43615717849707</v>
+        <v>-28.4200405536989</v>
       </c>
       <c r="F24" t="n">
-        <v>7.184058070684203</v>
+        <v>7.157768726578017</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.568830362111322</v>
+        <v>-2.568791085202797</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.872809932761561</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.336734230717</v>
+        <v>-28.32300040503603</v>
       </c>
       <c r="F25" t="n">
-        <v>7.152950759132262</v>
+        <v>7.125456923164637</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.466985338305535</v>
+        <v>-2.465636831112837</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.808140186037519</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.81380465396666</v>
+        <v>-28.79677156796957</v>
       </c>
       <c r="F26" t="n">
-        <v>7.167404661469527</v>
+        <v>7.141665194082694</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.55948245788233</v>
+        <v>-2.557636443181647</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.743890278138444</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.67759233520134</v>
+        <v>-28.66226124857368</v>
       </c>
       <c r="F27" t="n">
-        <v>7.356038560813117</v>
+        <v>7.327706817463621</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.635640383512651</v>
+        <v>-2.633702722692075</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.672318145888661</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.91965592244201</v>
+        <v>-28.90488780483654</v>
       </c>
       <c r="F28" t="n">
-        <v>7.165859769734204</v>
+        <v>7.138863441274564</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.793036048275881</v>
+        <v>-2.790836541398471</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.585831726713116</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.27410383727606</v>
+        <v>-29.25611501317153</v>
       </c>
       <c r="F29" t="n">
-        <v>7.225534486086791</v>
+        <v>7.199742649488591</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.909020759150732</v>
+        <v>-2.906637960033538</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.485656795539357</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.96824145828766</v>
+        <v>-28.94993841891493</v>
       </c>
       <c r="F30" t="n">
-        <v>7.068400667380395</v>
+        <v>7.04226843090831</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.888950258894366</v>
+        <v>-2.887706490124403</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.376902561121208</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.87797003019396</v>
+        <v>-28.86008594451216</v>
       </c>
       <c r="F31" t="n">
-        <v>7.019487823963706</v>
+        <v>6.992727156955218</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.796322216289155</v>
+        <v>-2.794567847708363</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.271894061915297</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.75666984436537</v>
+        <v>-28.73720159003972</v>
       </c>
       <c r="F32" t="n">
-        <v>7.100607732371041</v>
+        <v>7.074737341955791</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.310679518032047</v>
+        <v>-3.308493103457478</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.185199436135285</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.65499502049652</v>
+        <v>-28.63663961191242</v>
       </c>
       <c r="F33" t="n">
-        <v>7.338940013301823</v>
+        <v>7.311577100362615</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.613033159858868</v>
+        <v>-3.610100484022321</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.132794208513324</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.2557190607324</v>
+        <v>-28.23786115965629</v>
       </c>
       <c r="F34" t="n">
-        <v>7.293090768750098</v>
+        <v>7.268634347041753</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.816644653653392</v>
+        <v>-3.815348515672061</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.127578360623041</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.15738277408819</v>
+        <v>-28.13627798190733</v>
       </c>
       <c r="F35" t="n">
-        <v>7.237291374038661</v>
+        <v>7.211866121920029</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.077417141654892</v>
+        <v>-4.075898434525252</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.176618571660759</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.8508003184435</v>
+        <v>-27.82926348026886</v>
       </c>
       <c r="F36" t="n">
-        <v>7.407334203346999</v>
+        <v>7.380599720944195</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.283319788446717</v>
+        <v>-4.281185743083516</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.283132013055099</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.41523249520211</v>
+        <v>-27.39438954907808</v>
       </c>
       <c r="F37" t="n">
-        <v>7.112521727957012</v>
+        <v>7.088746105996437</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.672252828965874</v>
+        <v>-4.670406814265191</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.442002314568555</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.2185599219137</v>
+        <v>-27.1964077455055</v>
       </c>
       <c r="F38" t="n">
-        <v>7.486097497242824</v>
+        <v>7.460855537363975</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.685515331744543</v>
+        <v>-4.683944255403535</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.647710191052887</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.88566193755713</v>
+        <v>-26.86429529931944</v>
       </c>
       <c r="F39" t="n">
-        <v>7.377352829839447</v>
+        <v>7.352817854314052</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.851722116320255</v>
+        <v>-4.849653532471263</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.886462540597803</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.53673897452229</v>
+        <v>-26.51234801432816</v>
       </c>
       <c r="F40" t="n">
-        <v>7.482300729418723</v>
+        <v>7.457294430991026</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.9424779596191</v>
+        <v>-4.937254130785251</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.147691096315599</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.26045210765335</v>
+        <v>-26.23336413307382</v>
       </c>
       <c r="F41" t="n">
-        <v>7.58460398382397</v>
+        <v>7.560383223566777</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.312937760828581</v>
+        <v>-5.308028147262934</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.41207812959278</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.54088605116924</v>
+        <v>-25.51498947614831</v>
       </c>
       <c r="F42" t="n">
-        <v>7.555617625332389</v>
+        <v>7.531553972709296</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.392159285323865</v>
+        <v>-5.387040194912751</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.666856619224189</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.04827506444646</v>
+        <v>-25.02303310456761</v>
       </c>
       <c r="F43" t="n">
-        <v>7.502489060400665</v>
+        <v>7.479080022919658</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.420923074667138</v>
+        <v>-5.415895630375915</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.893417041400564</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.76024440192848</v>
+        <v>-24.73468822678143</v>
       </c>
       <c r="F44" t="n">
-        <v>7.700470863973246</v>
+        <v>7.676354842138787</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.463813458776632</v>
+        <v>-5.459375168113287</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.083168592058396</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.21813141816113</v>
+        <v>-24.19244431998566</v>
       </c>
       <c r="F45" t="n">
-        <v>7.629929536262026</v>
+        <v>7.605420745342315</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.517256238976558</v>
+        <v>-5.513040517461522</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.221930921878227</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.84390103373323</v>
+        <v>-23.81689161297075</v>
       </c>
       <c r="F46" t="n">
-        <v>7.521891853212103</v>
+        <v>7.497880569800377</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.412766569996742</v>
+        <v>-5.41031830936534</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.308658128861053</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.37031316303948</v>
+        <v>-23.34331683457984</v>
       </c>
       <c r="F47" t="n">
-        <v>7.705184092996268</v>
+        <v>7.680963332739074</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.551047472611053</v>
+        <v>-5.547787489203463</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.342585743623808</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.61970525651764</v>
+        <v>-22.59510481947803</v>
       </c>
       <c r="F48" t="n">
-        <v>7.725817562274828</v>
+        <v>7.700627971607346</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.810680930265322</v>
+        <v>-5.806661593292913</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.335058637346103</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.32414651986567</v>
+        <v>-22.29831540635895</v>
       </c>
       <c r="F49" t="n">
-        <v>7.784837663485328</v>
+        <v>7.759778995846265</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.646739114081229</v>
+        <v>-5.644683622535077</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.292742964465949</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.84990403402983</v>
+        <v>-21.82222690582242</v>
       </c>
       <c r="F50" t="n">
-        <v>7.707697815141879</v>
+        <v>7.682272563023247</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.694866419327414</v>
+        <v>-5.693819035100076</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.2283223266744</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.28938327246701</v>
+        <v>-21.26425914331374</v>
       </c>
       <c r="F51" t="n">
-        <v>7.7783962504872</v>
+        <v>7.754463520892524</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.809790653672085</v>
+        <v>-5.809280053861258</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.150051505459416</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.94767416829796</v>
+        <v>-20.92167285485429</v>
       </c>
       <c r="F52" t="n">
-        <v>7.505735951505413</v>
+        <v>7.483217190617643</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.937833375464166</v>
+        <v>-5.937754821647116</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.067266870220257</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.21951956114968</v>
+        <v>-20.19342660158612</v>
       </c>
       <c r="F53" t="n">
-        <v>7.679706471666268</v>
+        <v>7.655014388506773</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.977293576229129</v>
+        <v>-5.97783036064564</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.986848556416104</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.29530771894655</v>
+        <v>-19.27278895805879</v>
       </c>
       <c r="F54" t="n">
-        <v>7.595653887422388</v>
+        <v>7.572113926912964</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.00688218065143</v>
+        <v>-6.008060487907184</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.912378619506613</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.90674126290697</v>
+        <v>-18.88419631741352</v>
       </c>
       <c r="F55" t="n">
-        <v>7.55297298015836</v>
+        <v>7.529354465831887</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.457139567681231</v>
+        <v>-6.456432583327778</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.847254023948551</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.78635753827729</v>
+        <v>-18.76421845417194</v>
       </c>
       <c r="F56" t="n">
-        <v>7.286020925215565</v>
+        <v>7.26284754918571</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.342254610245084</v>
+        <v>-6.343288902169581</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.787912125753465</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.48757809512626</v>
+        <v>-18.46426070376515</v>
       </c>
       <c r="F57" t="n">
-        <v>7.296416213671896</v>
+        <v>7.273687975938659</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.244009969720772</v>
+        <v>-6.24657606107775</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.735000910589131</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.89190450043341</v>
+        <v>-17.87193873859978</v>
       </c>
       <c r="F58" t="n">
-        <v>7.038209817027375</v>
+        <v>7.017052655635145</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.431688130956915</v>
+        <v>-6.433966191651376</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.681164236731725</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.39007653251005</v>
+        <v>-17.36957398625991</v>
       </c>
       <c r="F59" t="n">
-        <v>7.115402034582192</v>
+        <v>7.092071550918235</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.544111735458817</v>
+        <v>-6.546023211673709</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.62584235033431</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.117520971951</v>
+        <v>-17.09832765598503</v>
       </c>
       <c r="F60" t="n">
-        <v>7.254416106155639</v>
+        <v>7.232159191324705</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.907737354584917</v>
+        <v>-6.908038477550276</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.559700385708204</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.76093901175375</v>
+        <v>-16.74217774178155</v>
       </c>
       <c r="F61" t="n">
-        <v>7.036743479109101</v>
+        <v>7.015219733237304</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.699373354858847</v>
+        <v>-6.700800415868595</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.482005694023682</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.3552216389915</v>
+        <v>-16.33719353797844</v>
       </c>
       <c r="F62" t="n">
-        <v>7.035120033556727</v>
+        <v>7.01367484150198</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.686058482868811</v>
+        <v>-6.688506743500214</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.385571712550865</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.84337805939422</v>
+        <v>-15.8257689120721</v>
       </c>
       <c r="F63" t="n">
-        <v>6.935539978142558</v>
+        <v>6.914749401229898</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.695969356119997</v>
+        <v>-6.698731832019602</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.272701543089573</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.63871918137236</v>
+        <v>-15.62226215670031</v>
       </c>
       <c r="F64" t="n">
-        <v>6.745884879177315</v>
+        <v>6.726220240309043</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.447385802064145</v>
+        <v>-6.451653892790548</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.140138152507991</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.39532017924183</v>
+        <v>-15.37870604693568</v>
       </c>
       <c r="F65" t="n">
-        <v>6.70495834049408</v>
+        <v>6.68440342503257</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.53564101552022</v>
+        <v>-6.538573691356767</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.99224981601818</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.00268201701846</v>
+        <v>-14.9875080380249</v>
       </c>
       <c r="F66" t="n">
-        <v>6.714280060117388</v>
+        <v>6.693201452542209</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.619523399827159</v>
+        <v>-6.622966675474533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.828814384472668</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.88453707617473</v>
+        <v>-14.87069851207102</v>
       </c>
       <c r="F67" t="n">
-        <v>6.666781185407606</v>
+        <v>6.645833500860844</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.582734028841909</v>
+        <v>-6.584606228148275</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.653788180248026</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.50878798461719</v>
+        <v>-14.49599680474082</v>
       </c>
       <c r="F68" t="n">
-        <v>6.378829076706683</v>
+        <v>6.358666930330425</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.433586514868965</v>
+        <v>-6.436139513923102</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.467735512881394</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.66923415594254</v>
+        <v>-14.65646916067186</v>
       </c>
       <c r="F69" t="n">
-        <v>6.363877666861431</v>
+        <v>6.343375120611289</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.339505226648322</v>
+        <v>-6.341573810497315</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.272031273803423</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.53704117414963</v>
+        <v>-14.52308477932035</v>
       </c>
       <c r="F70" t="n">
-        <v>6.311246609437693</v>
+        <v>6.290927355427334</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.430850223575045</v>
+        <v>-6.432604592155836</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.06808957341992</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.51867267326269</v>
+        <v>-14.50349869426913</v>
       </c>
       <c r="F71" t="n">
-        <v>6.415278047818048</v>
+        <v>6.393256794438265</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.277120403607497</v>
+        <v>-6.277971403292209</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.854707003136868</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.47618815054129</v>
+        <v>-14.46265070940295</v>
       </c>
       <c r="F72" t="n">
-        <v>6.028112468182525</v>
+        <v>6.007505183509648</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.377197966529652</v>
+        <v>-6.379633134858213</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.634752238596132</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.71008214080872</v>
+        <v>-14.69342873159405</v>
       </c>
       <c r="F73" t="n">
-        <v>5.984279438268426</v>
+        <v>5.964248214920585</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.093474671646606</v>
+        <v>-6.093304471709663</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.404988688254355</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.85701705560142</v>
+        <v>-14.84079569238052</v>
       </c>
       <c r="F74" t="n">
-        <v>5.912350326455983</v>
+        <v>5.891585934149005</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.861033926994601</v>
+        <v>-5.862814480181076</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.169923711208642</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.12326212619076</v>
+        <v>-15.10584936341126</v>
       </c>
       <c r="F75" t="n">
-        <v>5.628928154538297</v>
+        <v>5.610206161474629</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.664924322728386</v>
+        <v>-5.66684889124612</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.925835929603679</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.23323747006126</v>
+        <v>-15.21490824608284</v>
       </c>
       <c r="F76" t="n">
-        <v>5.652441930442037</v>
+        <v>5.633012953024916</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.398548329110628</v>
+        <v>-5.401821404821059</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.677790483851425</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.43451853394995</v>
+        <v>-15.41838881684895</v>
       </c>
       <c r="F77" t="n">
-        <v>5.589441769167651</v>
+        <v>5.569908053327796</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.381973473713002</v>
+        <v>-5.384722857309765</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.421925204618512</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.84734502715526</v>
+        <v>-15.82964423371325</v>
       </c>
       <c r="F78" t="n">
-        <v>5.389600858591544</v>
+        <v>5.370512281048308</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.903017758854138</v>
+        <v>-4.907835726299893</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.162439823127251</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.09349341288255</v>
+        <v>-16.07592354246896</v>
       </c>
       <c r="F79" t="n">
-        <v>4.979811779645519</v>
+        <v>4.96252993989444</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.004077244489421</v>
+        <v>-5.00786092001068</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.895742157852152</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.70781044682202</v>
+        <v>-16.68927174599814</v>
       </c>
       <c r="F80" t="n">
-        <v>5.172661400504143</v>
+        <v>5.153180053875655</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.900163636834641</v>
+        <v>-4.904038958475792</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.626095231556691</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.30370661066318</v>
+        <v>-17.28465731002847</v>
       </c>
       <c r="F81" t="n">
-        <v>4.837419893938906</v>
+        <v>4.819221592988907</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.851735208623097</v>
+        <v>-4.856474622251802</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.351927855947386</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.99204752486978</v>
+        <v>-17.97053687130082</v>
       </c>
       <c r="F82" t="n">
-        <v>5.020528841483287</v>
+        <v>5.003273186337892</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.746774216740979</v>
+        <v>-4.749523600337741</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.07813691425723</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.78669793815118</v>
+        <v>-18.76602519196409</v>
       </c>
       <c r="F83" t="n">
-        <v>4.843468537851783</v>
+        <v>4.826631836397324</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.662682355588572</v>
+        <v>-4.664934231677349</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.805176647483552</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.67823139246136</v>
+        <v>-19.65725752330891</v>
       </c>
       <c r="F84" t="n">
-        <v>4.907804114016026</v>
+        <v>4.889082120952357</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.53228301928498</v>
+        <v>-4.533147111272535</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.537387816307569</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.74359135160113</v>
+        <v>-20.72160937512988</v>
       </c>
       <c r="F85" t="n">
-        <v>4.634986707400137</v>
+        <v>4.6155839145887</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.267779224973589</v>
+        <v>-4.269350301314596</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.276420068311872</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.88801572760209</v>
+        <v>-21.86421392103583</v>
       </c>
       <c r="F86" t="n">
-        <v>4.557689751422587</v>
+        <v>4.539988957980573</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.041243108903203</v>
+        <v>-4.041845354833922</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.024498762108289</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.05117518896956</v>
+        <v>-23.02863024347611</v>
       </c>
       <c r="F87" t="n">
-        <v>4.455360312411655</v>
+        <v>4.438445057140146</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.961825199865292</v>
+        <v>-3.963487922326192</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.782533418647824</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.33365789843652</v>
+        <v>-24.31089038379476</v>
       </c>
       <c r="F88" t="n">
-        <v>4.267983274140873</v>
+        <v>4.249575496345406</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.110147898759207</v>
+        <v>-4.10903505301766</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.550657683933782</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.07163491606997</v>
+        <v>-26.04897213985095</v>
       </c>
       <c r="F89" t="n">
-        <v>4.294874864177777</v>
+        <v>4.276205240325476</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.142512071383954</v>
+        <v>-4.142446609869745</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.330832335018288</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.68807608642368</v>
+        <v>-27.66460158742847</v>
       </c>
       <c r="F90" t="n">
-        <v>4.000900296169661</v>
+        <v>3.983749379447</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.219874488875713</v>
+        <v>-4.218368874048915</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.123866494571061</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.25993796560131</v>
+        <v>-29.23633254357768</v>
       </c>
       <c r="F91" t="n">
-        <v>3.647408119443057</v>
+        <v>3.630990371679532</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.182129379783017</v>
+        <v>-4.180060795934025</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.934754738108631</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.90444903324768</v>
+        <v>-30.88067341128711</v>
       </c>
       <c r="F92" t="n">
-        <v>3.30732246082638</v>
+        <v>3.292920927700482</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.381970290359123</v>
+        <v>-4.379338737487937</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.76610214320617</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.01444383612878</v>
+        <v>-32.9916370445785</v>
       </c>
       <c r="F93" t="n">
-        <v>3.125758405017323</v>
+        <v>3.113242163500633</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.768913300846338</v>
+        <v>-4.765195086839287</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.625351554306031</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.07661245672906</v>
+        <v>-35.05080752782801</v>
       </c>
       <c r="F94" t="n">
-        <v>3.000726912878839</v>
+        <v>2.989153317166753</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.99488644789453</v>
+        <v>-4.989479326820897</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.514012395611426</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.10699296602962</v>
+        <v>-37.0822616059616</v>
       </c>
       <c r="F95" t="n">
-        <v>2.627910497157848</v>
+        <v>2.617331916461733</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.293417137291567</v>
+        <v>-5.28630801684851</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.439352101297679</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.60703365517142</v>
+        <v>-39.58104543403059</v>
       </c>
       <c r="F96" t="n">
-        <v>2.301336095073833</v>
+        <v>2.292092929267574</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.653259080896408</v>
+        <v>-5.64333511534238</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.396909990621106</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.76815390064946</v>
+        <v>-41.74591007812137</v>
       </c>
       <c r="F97" t="n">
-        <v>2.0442556364737</v>
+        <v>2.03773566965852</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.183824653557357</v>
+        <v>-6.172499811599264</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.39313457609948</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.12860445689277</v>
+        <v>-44.10317920477414</v>
       </c>
       <c r="F98" t="n">
-        <v>1.452614471056099</v>
+        <v>1.446906227017106</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.429095854994253</v>
+        <v>-6.418333982058354</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.413365067764071</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.32842554957096</v>
+        <v>-46.30446663537059</v>
       </c>
       <c r="F99" t="n">
-        <v>1.201360087220534</v>
+        <v>1.196725412014563</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.574485878051622</v>
+        <v>-6.564797573948744</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.46891303134406</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.66839974416982</v>
+        <v>-48.64416589160978</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9992280236471249</v>
+        <v>0.9939649179047511</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.830558229332942</v>
+        <v>-6.821236509709633</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.529781676650691</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.79757477071404</v>
+        <v>-50.77459777922682</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7919637773597595</v>
+        <v>0.788114640324292</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.009451455362287</v>
+        <v>-6.999907166590669</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.631437513236224</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.37446727753677</v>
+        <v>-53.34951334832044</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3126414780213264</v>
+        <v>0.3094993253393122</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.351919913096157</v>
+        <v>-7.341053301737524</v>
       </c>
     </row>
   </sheetData>
